--- a/ExtrSTS/Data.xlsx
+++ b/ExtrSTS/Data.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tfedorowicz\Source\Repos\ExtrBk\ExtrSTS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="27795" windowHeight="12855"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="27795" windowHeight="12855" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
     <sheet name="Arkusz2" sheetId="2" r:id="rId2"/>
     <sheet name="Arkusz3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="78">
   <si>
     <t>Lech</t>
   </si>
@@ -199,12 +204,66 @@
   </si>
   <si>
     <t>Chojnice</t>
+  </si>
+  <si>
+    <t>Brno</t>
+  </si>
+  <si>
+    <t>Dukla</t>
+  </si>
+  <si>
+    <t>Burnley</t>
+  </si>
+  <si>
+    <t>Newcastle</t>
+  </si>
+  <si>
+    <t>Crystal Pal</t>
+  </si>
+  <si>
+    <t>West Ham</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Aston Villa</t>
+  </si>
+  <si>
+    <t>Ile</t>
+  </si>
+  <si>
+    <t>Z ilu</t>
+  </si>
+  <si>
+    <t>Licz. kom.</t>
+  </si>
+  <si>
+    <t>Koszt</t>
+  </si>
+  <si>
+    <t>Za zakład</t>
+  </si>
+  <si>
+    <t>Śr. kurs</t>
+  </si>
+  <si>
+    <t>Podatek</t>
+  </si>
+  <si>
+    <t>Zysk/Koszt</t>
+  </si>
+  <si>
+    <t>Zysk full</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -215,7 +274,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -228,8 +287,56 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66FFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6FDB6F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFAFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9999"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -237,11 +344,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -257,15 +392,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFCC99"/>
+      <color rgb="FFFFAFFF"/>
+      <color rgb="FFFFCCCC"/>
+      <color rgb="FFFF9999"/>
+      <color rgb="FFFF9966"/>
+      <color rgb="FFFF99FF"/>
+      <color rgb="FFCCCCFF"/>
+      <color rgb="FF9999FF"/>
+      <color rgb="FF66FFFF"/>
+      <color rgb="FF00FFCC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -314,7 +488,7 @@
     </a:clrScheme>
     <a:fontScheme name="Pakiet Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -349,7 +523,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -558,10 +732,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -899,6 +1073,9 @@
       <c r="C21" s="6" t="s">
         <v>50</v>
       </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -910,6 +1087,9 @@
       <c r="C22" s="6" t="s">
         <v>50</v>
       </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -921,6 +1101,9 @@
       <c r="C23" s="6" t="s">
         <v>50</v>
       </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -932,6 +1115,9 @@
       <c r="C24" s="6" t="s">
         <v>50</v>
       </c>
+      <c r="E24">
+        <v>4</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -943,6 +1129,9 @@
       <c r="C25" s="6" t="s">
         <v>50</v>
       </c>
+      <c r="E25">
+        <v>5</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -954,6 +1143,9 @@
       <c r="C26" s="6" t="s">
         <v>50</v>
       </c>
+      <c r="E26">
+        <v>6</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -965,6 +1157,9 @@
       <c r="C27" s="6" t="s">
         <v>50</v>
       </c>
+      <c r="E27">
+        <v>7</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -975,6 +1170,79 @@
       </c>
       <c r="C28" s="6" t="s">
         <v>50</v>
+      </c>
+      <c r="E28">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E29">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E31">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E32">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E33">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -984,12 +1252,1059 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:R19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
+    <col min="6" max="18" width="10.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="21">
+        <v>1</v>
+      </c>
+      <c r="G1" s="21">
+        <v>2</v>
+      </c>
+      <c r="H1" s="21">
+        <v>3</v>
+      </c>
+      <c r="I1" s="21">
+        <v>4</v>
+      </c>
+      <c r="J1" s="21">
+        <v>5</v>
+      </c>
+      <c r="K1" s="21">
+        <v>6</v>
+      </c>
+      <c r="L1" s="21">
+        <v>7</v>
+      </c>
+      <c r="M1" s="21">
+        <v>8</v>
+      </c>
+      <c r="N1" s="21">
+        <v>9</v>
+      </c>
+      <c r="O1" s="21">
+        <v>10</v>
+      </c>
+      <c r="P1" s="21">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="21">
+        <v>12</v>
+      </c>
+      <c r="R1" s="21">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
+        <v>1</v>
+      </c>
+      <c r="B2" s="14">
+        <f>IFERROR(FACT($C$16)/(FACT($C$16-A2)*FACT(A2)),"")</f>
+        <v>13</v>
+      </c>
+      <c r="C2" s="15">
+        <f>IFERROR(B2*$C$17,"")</f>
+        <v>1.3</v>
+      </c>
+      <c r="D2" s="16">
+        <f>IFERROR(($C$18^A2)*B2*$C$19*$C$17,"")</f>
+        <v>3.5464000000000007</v>
+      </c>
+      <c r="E2" s="16">
+        <f>IFERROR(D2/C2,"")</f>
+        <v>2.7280000000000002</v>
+      </c>
+      <c r="F2" s="22">
+        <f>IFERROR((FACT($C$16-F$1)/(FACT($C$16-F$1-$A2)*FACT($A2)))*$C$19*$C$17*($C$18^$A2),"")</f>
+        <v>3.2736000000000001</v>
+      </c>
+      <c r="G2" s="22">
+        <f t="shared" ref="G2:R14" si="0">IFERROR((FACT($C$16-G$1)/(FACT($C$16-G$1-$A2)*FACT($A2)))*$C$19*$C$17*($C$18^$A2),"")</f>
+        <v>3.0007999999999999</v>
+      </c>
+      <c r="H2" s="22">
+        <f t="shared" si="0"/>
+        <v>2.7280000000000006</v>
+      </c>
+      <c r="I2" s="22">
+        <f t="shared" si="0"/>
+        <v>2.4552</v>
+      </c>
+      <c r="J2" s="22">
+        <f t="shared" si="0"/>
+        <v>2.1824000000000003</v>
+      </c>
+      <c r="K2" s="22">
+        <f t="shared" si="0"/>
+        <v>1.9096000000000004</v>
+      </c>
+      <c r="L2" s="22">
+        <f t="shared" si="0"/>
+        <v>1.6368</v>
+      </c>
+      <c r="M2" s="22">
+        <f t="shared" si="0"/>
+        <v>1.3640000000000003</v>
+      </c>
+      <c r="N2" s="22">
+        <f t="shared" si="0"/>
+        <v>1.0912000000000002</v>
+      </c>
+      <c r="O2" s="22">
+        <f t="shared" si="0"/>
+        <v>0.81840000000000002</v>
+      </c>
+      <c r="P2" s="22">
+        <f t="shared" si="0"/>
+        <v>0.54560000000000008</v>
+      </c>
+      <c r="Q2" s="22">
+        <f t="shared" si="0"/>
+        <v>0.27280000000000004</v>
+      </c>
+      <c r="R2" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
+        <v>2</v>
+      </c>
+      <c r="B3" s="14">
+        <f>IFERROR(FACT($C$16)/(FACT($C$16-A3)*FACT(A3)),"")</f>
+        <v>78</v>
+      </c>
+      <c r="C3" s="15">
+        <f>IFERROR(B3*$C$17,"")</f>
+        <v>7.8000000000000007</v>
+      </c>
+      <c r="D3" s="16">
+        <f>IFERROR(($C$18^A3)*B3*$C$19*$C$17,"")</f>
+        <v>65.963040000000007</v>
+      </c>
+      <c r="E3" s="16">
+        <f t="shared" ref="E3:E14" si="1">IFERROR(D3/C3,"")</f>
+        <v>8.4567999999999994</v>
+      </c>
+      <c r="F3" s="22">
+        <f t="shared" ref="F3:F14" si="2">IFERROR((FACT($C$16-F$1)/(FACT($C$16-F$1-$A3)*FACT($A3)))*$C$19*$C$17*($C$18^$A3),"")</f>
+        <v>55.814880000000002</v>
+      </c>
+      <c r="G3" s="22">
+        <f t="shared" si="0"/>
+        <v>46.512400000000007</v>
+      </c>
+      <c r="H3" s="22">
+        <f t="shared" si="0"/>
+        <v>38.055600000000005</v>
+      </c>
+      <c r="I3" s="22">
+        <f t="shared" si="0"/>
+        <v>30.444480000000006</v>
+      </c>
+      <c r="J3" s="22">
+        <f t="shared" si="0"/>
+        <v>23.679040000000008</v>
+      </c>
+      <c r="K3" s="22">
+        <f t="shared" si="0"/>
+        <v>17.759280000000004</v>
+      </c>
+      <c r="L3" s="22">
+        <f t="shared" si="0"/>
+        <v>12.685200000000002</v>
+      </c>
+      <c r="M3" s="22">
+        <f t="shared" si="0"/>
+        <v>8.456800000000003</v>
+      </c>
+      <c r="N3" s="22">
+        <f t="shared" si="0"/>
+        <v>5.0740800000000013</v>
+      </c>
+      <c r="O3" s="22">
+        <f t="shared" si="0"/>
+        <v>2.5370400000000006</v>
+      </c>
+      <c r="P3" s="22">
+        <f t="shared" si="0"/>
+        <v>0.84568000000000021</v>
+      </c>
+      <c r="Q3" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="R3" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>3</v>
+      </c>
+      <c r="B4" s="14">
+        <f>IFERROR(FACT($C$16)/(FACT($C$16-A4)*FACT(A4)),"")</f>
+        <v>286</v>
+      </c>
+      <c r="C4" s="15">
+        <f>IFERROR(B4*$C$17,"")</f>
+        <v>28.6</v>
+      </c>
+      <c r="D4" s="16">
+        <f>IFERROR(($C$18^A4)*B4*$C$19*$C$17,"")</f>
+        <v>749.77988800000003</v>
+      </c>
+      <c r="E4" s="16">
+        <f t="shared" si="1"/>
+        <v>26.216079999999998</v>
+      </c>
+      <c r="F4" s="22">
+        <f t="shared" si="2"/>
+        <v>576.75376000000006</v>
+      </c>
+      <c r="G4" s="22">
+        <f t="shared" si="0"/>
+        <v>432.56532000000004</v>
+      </c>
+      <c r="H4" s="22">
+        <f t="shared" si="0"/>
+        <v>314.59296000000006</v>
+      </c>
+      <c r="I4" s="22">
+        <f t="shared" si="0"/>
+        <v>220.21507200000005</v>
+      </c>
+      <c r="J4" s="22">
+        <f t="shared" si="0"/>
+        <v>146.81004800000005</v>
+      </c>
+      <c r="K4" s="22">
+        <f t="shared" si="0"/>
+        <v>91.756280000000018</v>
+      </c>
+      <c r="L4" s="22">
+        <f t="shared" si="0"/>
+        <v>52.43216000000001</v>
+      </c>
+      <c r="M4" s="22">
+        <f t="shared" si="0"/>
+        <v>26.216080000000005</v>
+      </c>
+      <c r="N4" s="22">
+        <f t="shared" si="0"/>
+        <v>10.486432000000002</v>
+      </c>
+      <c r="O4" s="22">
+        <f t="shared" si="0"/>
+        <v>2.6216080000000006</v>
+      </c>
+      <c r="P4" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Q4" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="R4" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>4</v>
+      </c>
+      <c r="B5" s="14">
+        <f>IFERROR(FACT($C$16)/(FACT($C$16-A5)*FACT(A5)),"")</f>
+        <v>715</v>
+      </c>
+      <c r="C5" s="15">
+        <f>IFERROR(B5*$C$17,"")</f>
+        <v>71.5</v>
+      </c>
+      <c r="D5" s="16">
+        <f>IFERROR(($C$18^A5)*B5*$C$19*$C$17,"")</f>
+        <v>5810.7941320000018</v>
+      </c>
+      <c r="E5" s="16">
+        <f t="shared" si="1"/>
+        <v>81.269848000000025</v>
+      </c>
+      <c r="F5" s="22">
+        <f t="shared" si="2"/>
+        <v>4022.857476000001</v>
+      </c>
+      <c r="G5" s="22">
+        <f t="shared" si="0"/>
+        <v>2681.9049840000007</v>
+      </c>
+      <c r="H5" s="22">
+        <f t="shared" si="0"/>
+        <v>1706.6668080000004</v>
+      </c>
+      <c r="I5" s="22">
+        <f t="shared" si="0"/>
+        <v>1024.0000848000004</v>
+      </c>
+      <c r="J5" s="22">
+        <f t="shared" si="0"/>
+        <v>568.88893600000017</v>
+      </c>
+      <c r="K5" s="22">
+        <f t="shared" si="0"/>
+        <v>284.44446800000009</v>
+      </c>
+      <c r="L5" s="22">
+        <f t="shared" si="0"/>
+        <v>121.90477200000004</v>
+      </c>
+      <c r="M5" s="22">
+        <f t="shared" si="0"/>
+        <v>40.634924000000012</v>
+      </c>
+      <c r="N5" s="22">
+        <f t="shared" si="0"/>
+        <v>8.1269848000000025</v>
+      </c>
+      <c r="O5" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P5" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Q5" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="R5" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>5</v>
+      </c>
+      <c r="B6" s="14">
+        <f>IFERROR(FACT($C$16)/(FACT($C$16-A6)*FACT(A6)),"")</f>
+        <v>1287</v>
+      </c>
+      <c r="C6" s="15">
+        <f>IFERROR(B6*$C$17,"")</f>
+        <v>128.70000000000002</v>
+      </c>
+      <c r="D6" s="16">
+        <f>IFERROR(($C$18^A6)*B6*$C$19*$C$17,"")</f>
+        <v>32424.231256560011</v>
+      </c>
+      <c r="E6" s="16">
+        <f t="shared" si="1"/>
+        <v>251.93652880000005</v>
+      </c>
+      <c r="F6" s="22">
+        <f t="shared" si="2"/>
+        <v>19953.373080960009</v>
+      </c>
+      <c r="G6" s="22">
+        <f t="shared" si="0"/>
+        <v>11639.467630560004</v>
+      </c>
+      <c r="H6" s="22">
+        <f t="shared" si="0"/>
+        <v>6348.8005257600025</v>
+      </c>
+      <c r="I6" s="22">
+        <f t="shared" si="0"/>
+        <v>3174.4002628800013</v>
+      </c>
+      <c r="J6" s="22">
+        <f t="shared" si="0"/>
+        <v>1410.8445612800006</v>
+      </c>
+      <c r="K6" s="22">
+        <f t="shared" si="0"/>
+        <v>529.06671048000021</v>
+      </c>
+      <c r="L6" s="22">
+        <f t="shared" si="0"/>
+        <v>151.16191728000004</v>
+      </c>
+      <c r="M6" s="22">
+        <f t="shared" si="0"/>
+        <v>25.193652880000009</v>
+      </c>
+      <c r="N6" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O6" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P6" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Q6" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="R6" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>6</v>
+      </c>
+      <c r="B7" s="14">
+        <f>IFERROR(FACT($C$16)/(FACT($C$16-A7)*FACT(A7)),"")</f>
+        <v>1716</v>
+      </c>
+      <c r="C7" s="15">
+        <f>IFERROR(B7*$C$17,"")</f>
+        <v>171.60000000000002</v>
+      </c>
+      <c r="D7" s="16">
+        <f>IFERROR(($C$18^A7)*B7*$C$19*$C$17,"")</f>
+        <v>134020.15586044808</v>
+      </c>
+      <c r="E7" s="16">
+        <f t="shared" si="1"/>
+        <v>781.00323928000034</v>
+      </c>
+      <c r="F7" s="22">
+        <f t="shared" si="2"/>
+        <v>72164.699309472038</v>
+      </c>
+      <c r="G7" s="22">
+        <f t="shared" si="0"/>
+        <v>36082.349654736019</v>
+      </c>
+      <c r="H7" s="22">
+        <f t="shared" si="0"/>
+        <v>16401.068024880005</v>
+      </c>
+      <c r="I7" s="22">
+        <f t="shared" si="0"/>
+        <v>6560.4272099520031</v>
+      </c>
+      <c r="J7" s="22">
+        <f t="shared" si="0"/>
+        <v>2186.8090699840013</v>
+      </c>
+      <c r="K7" s="22">
+        <f t="shared" si="0"/>
+        <v>546.70226749600033</v>
+      </c>
+      <c r="L7" s="22">
+        <f t="shared" si="0"/>
+        <v>78.100323928000037</v>
+      </c>
+      <c r="M7" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N7" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O7" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P7" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Q7" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="R7" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>7</v>
+      </c>
+      <c r="B8" s="14">
+        <f>IFERROR(FACT($C$16)/(FACT($C$16-A8)*FACT(A8)),"")</f>
+        <v>1716</v>
+      </c>
+      <c r="C8" s="15">
+        <f>IFERROR(B8*$C$17,"")</f>
+        <v>171.60000000000002</v>
+      </c>
+      <c r="D8" s="16">
+        <f>IFERROR(($C$18^A8)*B8*$C$19*$C$17,"")</f>
+        <v>415462.483167389</v>
+      </c>
+      <c r="E8" s="16">
+        <f t="shared" si="1"/>
+        <v>2421.1100417680009</v>
+      </c>
+      <c r="F8" s="22">
+        <f t="shared" si="2"/>
+        <v>191751.91530802572</v>
+      </c>
+      <c r="G8" s="22">
+        <f t="shared" si="0"/>
+        <v>79896.631378344027</v>
+      </c>
+      <c r="H8" s="22">
+        <f t="shared" si="0"/>
+        <v>29053.320501216014</v>
+      </c>
+      <c r="I8" s="22">
+        <f t="shared" si="0"/>
+        <v>8715.9961503648046</v>
+      </c>
+      <c r="J8" s="22">
+        <f t="shared" si="0"/>
+        <v>1936.888033414401</v>
+      </c>
+      <c r="K8" s="22">
+        <f t="shared" si="0"/>
+        <v>242.11100417680012</v>
+      </c>
+      <c r="L8" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M8" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N8" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O8" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P8" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Q8" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="R8" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="14">
+        <f>IFERROR(FACT($C$16)/(FACT($C$16-A9)*FACT(A9)),"")</f>
+        <v>1287</v>
+      </c>
+      <c r="C9" s="15">
+        <f>IFERROR(B9*$C$17,"")</f>
+        <v>128.70000000000002</v>
+      </c>
+      <c r="D9" s="16">
+        <f>IFERROR(($C$18^A9)*B9*$C$19*$C$17,"")</f>
+        <v>965950.27336417965</v>
+      </c>
+      <c r="E9" s="16">
+        <f t="shared" si="1"/>
+        <v>7505.4411294808042</v>
+      </c>
+      <c r="F9" s="22">
+        <f t="shared" si="2"/>
+        <v>371519.33590929984</v>
+      </c>
+      <c r="G9" s="22">
+        <f t="shared" si="0"/>
+        <v>123839.77863643327</v>
+      </c>
+      <c r="H9" s="22">
+        <f t="shared" si="0"/>
+        <v>33774.485082663625</v>
+      </c>
+      <c r="I9" s="22">
+        <f t="shared" si="0"/>
+        <v>6754.8970165327237</v>
+      </c>
+      <c r="J9" s="22">
+        <f t="shared" si="0"/>
+        <v>750.54411294808051</v>
+      </c>
+      <c r="K9" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L9" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M9" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N9" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O9" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P9" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Q9" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="R9" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>9</v>
+      </c>
+      <c r="B10" s="14">
+        <f>IFERROR(FACT($C$16)/(FACT($C$16-A10)*FACT(A10)),"")</f>
+        <v>715</v>
+      </c>
+      <c r="C10" s="15">
+        <f>IFERROR(B10*$C$17,"")</f>
+        <v>71.5</v>
+      </c>
+      <c r="D10" s="16">
+        <f>IFERROR(($C$18^A10)*B10*$C$19*$C$17,"")</f>
+        <v>1663581.0263494204</v>
+      </c>
+      <c r="E10" s="16">
+        <f t="shared" si="1"/>
+        <v>23266.867501390494</v>
+      </c>
+      <c r="F10" s="22">
+        <f t="shared" si="2"/>
+        <v>511871.08503059088</v>
+      </c>
+      <c r="G10" s="22">
+        <f t="shared" si="0"/>
+        <v>127967.77125764772</v>
+      </c>
+      <c r="H10" s="22">
+        <f t="shared" si="0"/>
+        <v>23266.867501390498</v>
+      </c>
+      <c r="I10" s="22">
+        <f t="shared" si="0"/>
+        <v>2326.6867501390498</v>
+      </c>
+      <c r="J10" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K10" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L10" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M10" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N10" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O10" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P10" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Q10" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="R10" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>10</v>
+      </c>
+      <c r="B11" s="14">
+        <f>IFERROR(FACT($C$16)/(FACT($C$16-A11)*FACT(A11)),"")</f>
+        <v>286</v>
+      </c>
+      <c r="C11" s="15">
+        <f>IFERROR(B11*$C$17,"")</f>
+        <v>28.6</v>
+      </c>
+      <c r="D11" s="16">
+        <f>IFERROR(($C$18^A11)*B11*$C$19*$C$17,"")</f>
+        <v>2062840.4726732813</v>
+      </c>
+      <c r="E11" s="16">
+        <f t="shared" si="1"/>
+        <v>72127.289254310526</v>
+      </c>
+      <c r="F11" s="22">
+        <f t="shared" si="2"/>
+        <v>476040.10907844949</v>
+      </c>
+      <c r="G11" s="22">
+        <f t="shared" si="0"/>
+        <v>79340.018179741586</v>
+      </c>
+      <c r="H11" s="22">
+        <f t="shared" si="0"/>
+        <v>7212.7289254310535</v>
+      </c>
+      <c r="I11" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J11" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K11" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L11" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M11" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N11" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O11" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P11" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Q11" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="R11" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <v>11</v>
+      </c>
+      <c r="B12" s="14">
+        <f>IFERROR(FACT($C$16)/(FACT($C$16-A12)*FACT(A12)),"")</f>
+        <v>78</v>
+      </c>
+      <c r="C12" s="15">
+        <f>IFERROR(B12*$C$17,"")</f>
+        <v>7.8000000000000007</v>
+      </c>
+      <c r="D12" s="16">
+        <f>IFERROR(($C$18^A12)*B12*$C$19*$C$17,"")</f>
+        <v>1744037.8541692288</v>
+      </c>
+      <c r="E12" s="16">
+        <f t="shared" si="1"/>
+        <v>223594.59668836265</v>
+      </c>
+      <c r="F12" s="22">
+        <f t="shared" si="2"/>
+        <v>268313.51602603518</v>
+      </c>
+      <c r="G12" s="22">
+        <f t="shared" si="0"/>
+        <v>22359.459668836269</v>
+      </c>
+      <c r="H12" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I12" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J12" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K12" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L12" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M12" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N12" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O12" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P12" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Q12" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="R12" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <v>12</v>
+      </c>
+      <c r="B13" s="14">
+        <f>IFERROR(FACT($C$16)/(FACT($C$16-A13)*FACT(A13)),"")</f>
+        <v>13</v>
+      </c>
+      <c r="C13" s="15">
+        <f>IFERROR(B13*$C$17,"")</f>
+        <v>1.3</v>
+      </c>
+      <c r="D13" s="16">
+        <f>IFERROR(($C$18^A13)*B13*$C$19*$C$17,"")</f>
+        <v>901086.22465410165</v>
+      </c>
+      <c r="E13" s="16">
+        <f t="shared" si="1"/>
+        <v>693143.24973392428</v>
+      </c>
+      <c r="F13" s="22">
+        <f t="shared" si="2"/>
+        <v>69314.324973392446</v>
+      </c>
+      <c r="G13" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H13" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I13" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J13" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K13" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L13" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M13" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N13" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O13" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P13" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Q13" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="R13" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>13</v>
+      </c>
+      <c r="B14" s="14">
+        <f>IFERROR(FACT($C$16)/(FACT($C$16-A14)*FACT(A14)),"")</f>
+        <v>1</v>
+      </c>
+      <c r="C14" s="15">
+        <f>IFERROR(B14*$C$17,"")</f>
+        <v>0.1</v>
+      </c>
+      <c r="D14" s="16">
+        <f>IFERROR(($C$18^A14)*B14*$C$19*$C$17,"")</f>
+        <v>214874.40741751657</v>
+      </c>
+      <c r="E14" s="16">
+        <f t="shared" si="1"/>
+        <v>2148744.0741751655</v>
+      </c>
+      <c r="F14" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G14" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H14" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I14" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J14" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K14" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L14" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M14" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N14" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="O14" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P14" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Q14" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="R14" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B16" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="11">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="17">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="19">
+        <v>0.88</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
